--- a/Data Energi.xlsx
+++ b/Data Energi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\System Dynamics\system_dynamics_reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\Github\system_dynamics_reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F9825D-9582-4D9E-9A61-D5C9F35FE389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB209D68-03C7-4753-84DF-91F9E031CD08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2745" windowWidth="18195" windowHeight="8325" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Industry" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="118">
   <si>
     <t>Year</t>
   </si>
@@ -391,6 +391,9 @@
   <si>
     <t>Percent</t>
   </si>
+  <si>
+    <t>Share</t>
+  </si>
 </sst>
 </file>
 
@@ -445,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -602,12 +605,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -637,58 +649,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -707,6 +668,48 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,9 +725,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1008,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N38" sqref="N38:N48"/>
     </sheetView>
   </sheetViews>
@@ -1026,57 +1039,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1092,26 +1105,26 @@
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1688,61 +1701,61 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19" t="s">
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1758,26 +1771,26 @@
       <c r="J28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -2411,46 +2424,46 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="19" t="s">
+      <c r="A52" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="19" t="s">
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="19" t="s">
+      <c r="J52" s="32" t="s">
         <v>12</v>
       </c>
       <c r="K52" s="3" t="s">
@@ -2462,15 +2475,15 @@
       <c r="M52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N52" s="37" t="s">
+      <c r="N52" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="2" t="s">
         <v>6</v>
       </c>
@@ -2483,8 +2496,8 @@
       <c r="H53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -3041,14 +3054,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A51:N51"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="A3:A5"/>
@@ -3061,16 +3076,14 @@
     <mergeCell ref="F27:J27"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="L27:L28"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3078,10 +3091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078D60BA-49DA-43DF-A10A-43D7900A8D4A}">
-  <dimension ref="B2:N52"/>
+  <dimension ref="B2:X52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27:N37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20:U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,21 +3103,28 @@
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3125,9 +3145,42 @@
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="39"/>
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
@@ -3146,8 +3199,60 @@
       <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>2000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>208610</v>
+      </c>
+      <c r="L4">
+        <v>81</v>
+      </c>
+      <c r="M4" s="1">
+        <v>63216</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5932</v>
+      </c>
+      <c r="O4" s="1">
+        <v>18735</v>
+      </c>
+      <c r="P4" s="1">
+        <v>296573</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>SUM(K4:O4)</f>
+        <v>296574</v>
+      </c>
+      <c r="R4" s="3">
+        <f>K4/$Q4</f>
+        <v>0.70339948882909498</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" ref="S4:U4" si="0">L4/$Q4</f>
+        <v>2.7311901919925552E-4</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21315422120617453</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0001753356666464E-2</v>
+      </c>
+      <c r="V4" s="53">
+        <f>R4*Q4</f>
+        <v>208610</v>
+      </c>
+      <c r="W4">
+        <v>296573</v>
+      </c>
+      <c r="X4">
+        <f>W4*1000</f>
+        <v>296573000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2000</v>
       </c>
@@ -3159,8 +3264,56 @@
       <c r="H5" s="4">
         <v>30563</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>2001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>212323</v>
+      </c>
+      <c r="L5">
+        <v>87</v>
+      </c>
+      <c r="M5" s="1">
+        <v>62329</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6170</v>
+      </c>
+      <c r="O5" s="1">
+        <v>20437</v>
+      </c>
+      <c r="P5" s="1">
+        <v>301347</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5:Q17" si="1">SUM(K5:O5)</f>
+        <v>301346</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" ref="R5:R17" si="2">K5/$Q5</f>
+        <v>0.70458210827420975</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" ref="S5:S17" si="3">L5/$Q5</f>
+        <v>2.8870467834316699E-4</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" ref="T5:T17" si="4">M5/$Q5</f>
+        <v>0.20683533214311789</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" ref="U5:U17" si="5">N5/$Q5</f>
+        <v>2.0474803050314256E-2</v>
+      </c>
+      <c r="W5">
+        <v>301347</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X17" si="6">W5*1000</f>
+        <v>301347000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>2001</v>
       </c>
@@ -3172,8 +3325,56 @@
       <c r="H6" s="4">
         <v>33340</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>2002</v>
+      </c>
+      <c r="K6" s="1">
+        <v>216465</v>
+      </c>
+      <c r="L6">
+        <v>96</v>
+      </c>
+      <c r="M6" s="1">
+        <v>59261</v>
+      </c>
+      <c r="N6" s="1">
+        <v>6373</v>
+      </c>
+      <c r="O6" s="1">
+        <v>20838</v>
+      </c>
+      <c r="P6" s="1">
+        <v>303033</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="1"/>
+        <v>303033</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.71432814247953191</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="3"/>
+        <v>3.1679718050509352E-4</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.19555955951992027</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1030712826655844E-2</v>
+      </c>
+      <c r="W6">
+        <v>303033</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>303033000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>2002</v>
       </c>
@@ -3185,8 +3386,56 @@
       <c r="H7" s="4">
         <v>33994</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>2003</v>
+      </c>
+      <c r="K7" s="1">
+        <v>220377</v>
+      </c>
+      <c r="L7">
+        <v>99</v>
+      </c>
+      <c r="M7" s="1">
+        <v>59640</v>
+      </c>
+      <c r="N7" s="1">
+        <v>7013</v>
+      </c>
+      <c r="O7" s="1">
+        <v>21917</v>
+      </c>
+      <c r="P7" s="1">
+        <v>309046</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="1"/>
+        <v>309046</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.7130880192592689</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="3"/>
+        <v>3.2034066126078318E-4</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="4"/>
+        <v>0.19298098017770818</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="5"/>
+        <v>2.2692414721433057E-2</v>
+      </c>
+      <c r="W7">
+        <v>309046</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>309046000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>2003</v>
       </c>
@@ -3198,8 +3447,56 @@
       <c r="H8" s="4">
         <v>35753</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>2004</v>
+      </c>
+      <c r="K8" s="1">
+        <v>223425</v>
+      </c>
+      <c r="L8">
+        <v>124</v>
+      </c>
+      <c r="M8" s="1">
+        <v>60112</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6798</v>
+      </c>
+      <c r="O8" s="1">
+        <v>23655</v>
+      </c>
+      <c r="P8" s="1">
+        <v>314115</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="1"/>
+        <v>314114</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.71128634826846304</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.947611376761303E-4</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="4"/>
+        <v>0.19137001216118987</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1641824305825275E-2</v>
+      </c>
+      <c r="W8">
+        <v>314115</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="6"/>
+        <v>314115000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>2004</v>
       </c>
@@ -3211,8 +3508,56 @@
       <c r="H9" s="4">
         <v>38588</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>2005</v>
+      </c>
+      <c r="K9" s="1">
+        <v>224707</v>
+      </c>
+      <c r="L9">
+        <v>124</v>
+      </c>
+      <c r="M9" s="1">
+        <v>57696</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5998</v>
+      </c>
+      <c r="O9" s="1">
+        <v>25246</v>
+      </c>
+      <c r="P9" s="1">
+        <v>313772</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="1"/>
+        <v>313771</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.71614967603761981</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="3"/>
+        <v>3.9519267236296537E-4</v>
+      </c>
+      <c r="T9" s="3">
+        <f t="shared" si="4"/>
+        <v>0.18387932600527135</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="5"/>
+        <v>1.9115852006718274E-2</v>
+      </c>
+      <c r="W9">
+        <v>313772</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="6"/>
+        <v>313772000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>2005</v>
       </c>
@@ -3224,8 +3569,56 @@
       <c r="H10" s="4">
         <v>41184</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>2006</v>
+      </c>
+      <c r="K10" s="1">
+        <v>228186</v>
+      </c>
+      <c r="L10">
+        <v>128</v>
+      </c>
+      <c r="M10" s="1">
+        <v>50862</v>
+      </c>
+      <c r="N10" s="1">
+        <v>6719</v>
+      </c>
+      <c r="O10" s="1">
+        <v>26821</v>
+      </c>
+      <c r="P10" s="1">
+        <v>312716</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="1"/>
+        <v>312716</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.72969083769298659</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="3"/>
+        <v>4.0931708003428028E-4</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="4"/>
+        <v>0.16264597909924661</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="5"/>
+        <v>2.148594891211195E-2</v>
+      </c>
+      <c r="W10">
+        <v>312716</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="6"/>
+        <v>312716000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>2006</v>
       </c>
@@ -3237,8 +3630,56 @@
       <c r="H11" s="4">
         <v>43753</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>2007</v>
+      </c>
+      <c r="K11" s="1">
+        <v>231616</v>
+      </c>
+      <c r="L11">
+        <v>132</v>
+      </c>
+      <c r="M11" s="1">
+        <v>50229</v>
+      </c>
+      <c r="N11" s="1">
+        <v>8345</v>
+      </c>
+      <c r="O11" s="1">
+        <v>29010</v>
+      </c>
+      <c r="P11" s="1">
+        <v>319333</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="1"/>
+        <v>319332</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.72531409316949136</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="3"/>
+        <v>4.1336289504340313E-4</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="4"/>
+        <v>0.15729397617526586</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6132676963160597E-2</v>
+      </c>
+      <c r="W11">
+        <v>319333</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="6"/>
+        <v>319333000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2007</v>
       </c>
@@ -3250,8 +3691,56 @@
       <c r="H12" s="4">
         <v>47325</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>2008</v>
+      </c>
+      <c r="K12" s="1">
+        <v>232244</v>
+      </c>
+      <c r="L12">
+        <v>131</v>
+      </c>
+      <c r="M12" s="1">
+        <v>40096</v>
+      </c>
+      <c r="N12" s="1">
+        <v>13568</v>
+      </c>
+      <c r="O12" s="1">
+        <v>30763</v>
+      </c>
+      <c r="P12" s="1">
+        <v>316802</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="1"/>
+        <v>316802</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.73308880625753625</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="3"/>
+        <v>4.1350749048301463E-4</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.12656485754509125</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2828012449416357E-2</v>
+      </c>
+      <c r="W12">
+        <v>316802</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="6"/>
+        <v>316802000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>2008</v>
       </c>
@@ -3273,8 +3762,56 @@
       <c r="H13" s="4">
         <v>50184</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>2009</v>
+      </c>
+      <c r="K13" s="1">
+        <v>233261</v>
+      </c>
+      <c r="L13">
+        <v>130</v>
+      </c>
+      <c r="M13" s="1">
+        <v>24255</v>
+      </c>
+      <c r="N13" s="1">
+        <v>22767</v>
+      </c>
+      <c r="O13" s="1">
+        <v>33682</v>
+      </c>
+      <c r="P13" s="1">
+        <v>314094</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="1"/>
+        <v>314095</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.74264474124070745</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="3"/>
+        <v>4.1388751810757891E-4</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="4"/>
+        <v>7.722185962845636E-2</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="5"/>
+        <v>7.248443942119423E-2</v>
+      </c>
+      <c r="W13">
+        <v>314094</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="6"/>
+        <v>314094000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>2009</v>
       </c>
@@ -3296,8 +3833,56 @@
       <c r="H14" s="4">
         <v>54945</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>2010</v>
+      </c>
+      <c r="K14" s="1">
+        <v>228915</v>
+      </c>
+      <c r="L14">
+        <v>135</v>
+      </c>
+      <c r="M14" s="1">
+        <v>14439</v>
+      </c>
+      <c r="N14" s="1">
+        <v>30386</v>
+      </c>
+      <c r="O14" s="1">
+        <v>36673</v>
+      </c>
+      <c r="P14" s="1">
+        <v>310548</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="1"/>
+        <v>310548</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.73713242397310563</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="3"/>
+        <v>4.3471540631399977E-4</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="4"/>
+        <v>4.6495227790872909E-2</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="5"/>
+        <v>9.7846387675979238E-2</v>
+      </c>
+      <c r="W14">
+        <v>310548</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="6"/>
+        <v>310548000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>2010</v>
       </c>
@@ -3319,8 +3904,56 @@
       <c r="H15" s="4">
         <v>59825</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>2011</v>
+      </c>
+      <c r="K15" s="1">
+        <v>237929</v>
+      </c>
+      <c r="L15">
+        <v>114</v>
+      </c>
+      <c r="M15" s="1">
+        <v>10072</v>
+      </c>
+      <c r="N15" s="1">
+        <v>35326</v>
+      </c>
+      <c r="O15" s="1">
+        <v>39914</v>
+      </c>
+      <c r="P15" s="1">
+        <v>323356</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="1"/>
+        <v>323355</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.73581357950240445</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5255369485549939E-4</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="4"/>
+        <v>3.1148428198110437E-2</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="5"/>
+        <v>0.10924834933741553</v>
+      </c>
+      <c r="W15">
+        <v>323356</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="6"/>
+        <v>323356000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>2011</v>
       </c>
@@ -3342,8 +3975,56 @@
       <c r="H16" s="4">
         <v>65112</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>2012</v>
+      </c>
+      <c r="K16" s="1">
+        <v>238574</v>
+      </c>
+      <c r="L16">
+        <v>134</v>
+      </c>
+      <c r="M16" s="1">
+        <v>7015</v>
+      </c>
+      <c r="N16" s="1">
+        <v>41123</v>
+      </c>
+      <c r="O16" s="1">
+        <v>44217</v>
+      </c>
+      <c r="P16" s="1">
+        <v>331064</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="1"/>
+        <v>331063</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.72063021237649627</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="3"/>
+        <v>4.0475679855495782E-4</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" si="4"/>
+        <v>2.1189320461664395E-2</v>
+      </c>
+      <c r="U16" s="3">
+        <f t="shared" si="5"/>
+        <v>0.12421502855951888</v>
+      </c>
+      <c r="W16">
+        <v>331064</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="6"/>
+        <v>331064000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>2012</v>
       </c>
@@ -3365,8 +4046,56 @@
       <c r="H17" s="4">
         <v>72133</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>2013</v>
+      </c>
+      <c r="K17" s="1">
+        <v>239246</v>
+      </c>
+      <c r="L17">
+        <v>122</v>
+      </c>
+      <c r="M17" s="1">
+        <v>6396</v>
+      </c>
+      <c r="N17" s="1">
+        <v>45839</v>
+      </c>
+      <c r="O17" s="1">
+        <v>47330</v>
+      </c>
+      <c r="P17" s="1">
+        <v>338934</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="1"/>
+        <v>338933</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.70587992317065618</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5995314708216669E-4</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="4"/>
+        <v>1.8870986301127362E-2</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="5"/>
+        <v>0.13524501892704457</v>
+      </c>
+      <c r="W17">
+        <v>338934</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="6"/>
+        <v>338934000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>2013</v>
       </c>
@@ -3389,7 +4118,7 @@
         <v>77211</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>2014</v>
       </c>
@@ -3412,7 +4141,7 @@
         <v>84086</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>2015</v>
       </c>
@@ -3434,8 +4163,11 @@
       <c r="H20" s="4">
         <v>88682</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>296573000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>2016</v>
       </c>
@@ -3457,8 +4189,11 @@
       <c r="H21" s="4">
         <v>93635</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>301347000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>2017</v>
       </c>
@@ -3480,8 +4215,11 @@
       <c r="H22" s="4">
         <v>94457</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>303033000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>2018</v>
       </c>
@@ -3503,32 +4241,41 @@
       <c r="H23" s="4">
         <v>102712</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <v>309046000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H24">
         <f>(H23/H5)^(1/COUNT(H5:H23))-1</f>
         <v>6.5875769940574092E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+      <c r="U24">
+        <v>314115000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="U25">
+        <v>313772000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
@@ -3565,11 +4312,14 @@
       <c r="M26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="37" t="s">
+      <c r="N26" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>312716000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>2008</v>
       </c>
@@ -3594,7 +4344,7 @@
       <c r="I27" s="4">
         <v>152899</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="21">
         <v>0</v>
       </c>
       <c r="K27" s="4">
@@ -3613,8 +4363,11 @@
         <f>I27*1000</f>
         <v>152899000</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <v>319333000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>2009</v>
       </c>
@@ -3639,27 +4392,30 @@
       <c r="I28" s="4">
         <v>143915</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="21">
         <v>0</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" ref="K28:K37" si="0">E28</f>
+        <f t="shared" ref="K28:K37" si="7">E28</f>
         <v>24255</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" ref="L28:L37" si="1">F28</f>
+        <f t="shared" ref="L28:L37" si="8">F28</f>
         <v>22767</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" ref="M28:M37" si="2">H28</f>
+        <f t="shared" ref="M28:M37" si="9">H28</f>
         <v>33682</v>
       </c>
       <c r="N28">
-        <f t="shared" ref="N28:N37" si="3">I28*1000</f>
+        <f t="shared" ref="N28:N37" si="10">I28*1000</f>
         <v>143915000</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>316802000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>2010</v>
       </c>
@@ -3684,27 +4440,30 @@
       <c r="I29" s="4">
         <v>144700</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="21">
         <v>0</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14439</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>30386</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>36673</v>
       </c>
       <c r="N29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>144700000</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <v>314094000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>2011</v>
       </c>
@@ -3729,27 +4488,30 @@
       <c r="I30" s="4">
         <v>145570</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J30" s="21">
         <v>0</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>10072</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>35326</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>39914</v>
       </c>
       <c r="N30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>145570000</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <v>310548000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>2012</v>
       </c>
@@ -3774,27 +4536,30 @@
       <c r="I31" s="4">
         <v>147629</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31" s="21">
         <v>0</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>7015</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>41123</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>44217</v>
       </c>
       <c r="N31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>147629000</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <v>323356000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>2013</v>
       </c>
@@ -3819,27 +4584,30 @@
       <c r="I32" s="4">
         <v>149215</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="21">
         <v>0</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>6396</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>45839</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>47330</v>
       </c>
       <c r="N32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>149215000</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <v>331064000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>2014</v>
       </c>
@@ -3864,27 +4632,30 @@
       <c r="I33" s="4">
         <v>152605</v>
       </c>
-      <c r="J33" s="38">
+      <c r="J33" s="21">
         <v>0</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4929</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>49810</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>51545</v>
       </c>
       <c r="N33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>152605000</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <v>338934000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>2015</v>
       </c>
@@ -3909,27 +4680,27 @@
       <c r="I34" s="4">
         <v>148980</v>
       </c>
-      <c r="J34" s="38">
+      <c r="J34" s="21">
         <v>0</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3903</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>52130</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>54362</v>
       </c>
       <c r="N34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>148980000</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>2016</v>
       </c>
@@ -3954,27 +4725,27 @@
       <c r="I35" s="4">
         <v>149262</v>
       </c>
-      <c r="J35" s="38">
+      <c r="J35" s="21">
         <v>0</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3038</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>54302</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>57398</v>
       </c>
       <c r="N35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>149262000</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>2017</v>
       </c>
@@ -3999,27 +4770,27 @@
       <c r="I36" s="4">
         <v>149026</v>
       </c>
-      <c r="J36" s="38">
+      <c r="J36" s="21">
         <v>0</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3114</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>58783</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>57902</v>
       </c>
       <c r="N36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>149026000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>2018</v>
       </c>
@@ -4044,37 +4815,37 @@
       <c r="I37" s="4">
         <v>151214</v>
       </c>
-      <c r="J37" s="38">
+      <c r="J37" s="21">
         <v>0</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3043</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>61819</v>
       </c>
       <c r="M37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>62963</v>
       </c>
       <c r="N37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>151214000</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>0</v>
       </c>
@@ -4094,7 +4865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>2008</v>
       </c>
@@ -4114,7 +4885,7 @@
         <v>36.42</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>2009</v>
       </c>
@@ -4134,7 +4905,7 @@
         <v>41.67</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>2010</v>
       </c>
@@ -4154,7 +4925,7 @@
         <v>44.92</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>2011</v>
       </c>
@@ -4174,7 +4945,7 @@
         <v>46.72</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>2012</v>
       </c>
@@ -4194,7 +4965,7 @@
         <v>47.81</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>2013</v>
       </c>
@@ -4214,7 +4985,7 @@
         <v>47.48</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>2014</v>
       </c>
@@ -4234,7 +5005,7 @@
         <v>48.45</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>2015</v>
       </c>
@@ -4368,56 +5139,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
@@ -4460,29 +5231,29 @@
       <c r="P4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
       <c r="Q5" s="2" t="s">
         <v>26</v>
       </c>
@@ -4494,39 +5265,39 @@
       <c r="B6" s="2">
         <v>968</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="23">
         <v>3550</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="23">
         <v>1202717</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="23">
         <v>12059026</v>
       </c>
-      <c r="F6" s="41">
-        <v>0</v>
-      </c>
-      <c r="G6" s="41">
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
         <v>0</v>
       </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="41">
+      <c r="I6" s="24">
         <v>0</v>
       </c>
       <c r="J6" s="14"/>
-      <c r="K6" s="40">
+      <c r="K6" s="23">
         <v>4708</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="23">
         <v>9365388</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="23">
         <v>48356</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="23">
         <v>71474</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="24">
         <v>0</v>
       </c>
       <c r="P6" s="14"/>
@@ -4541,39 +5312,39 @@
       <c r="B7" s="2">
         <v>773</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="23">
         <v>3430</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="23">
         <v>1473503</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="23">
         <v>12705861</v>
       </c>
-      <c r="F7" s="41">
-        <v>0</v>
-      </c>
-      <c r="G7" s="41">
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24">
         <v>0</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="41">
+      <c r="I7" s="24">
         <v>0</v>
       </c>
       <c r="J7" s="14"/>
-      <c r="K7" s="40">
+      <c r="K7" s="23">
         <v>4642</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="23">
         <v>9941771</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="23">
         <v>46704</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="23">
         <v>74546</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="24">
         <v>0</v>
       </c>
       <c r="P7" s="14"/>
@@ -4588,39 +5359,39 @@
       <c r="B8" s="2">
         <v>654</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="23">
         <v>3488</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="23">
         <v>1597291</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="23">
         <v>13323304</v>
       </c>
-      <c r="F8" s="41">
-        <v>0</v>
-      </c>
-      <c r="G8" s="41">
+      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
         <v>0</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="41">
+      <c r="I8" s="24">
         <v>0</v>
       </c>
       <c r="J8" s="14"/>
-      <c r="K8" s="40">
+      <c r="K8" s="23">
         <v>4414</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="23">
         <v>9782952</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="23">
         <v>44148</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="23">
         <v>71517</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="24">
         <v>0</v>
       </c>
       <c r="P8" s="14"/>
@@ -4635,39 +5406,39 @@
       <c r="B9" s="2">
         <v>599</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="23">
         <v>3556</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="23">
         <v>1929351</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="23">
         <v>13746726</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="23">
         <v>371238</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="23">
         <v>107441</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="40">
+      <c r="I9" s="23">
         <v>107441</v>
       </c>
       <c r="J9" s="14"/>
-      <c r="K9" s="40">
+      <c r="K9" s="23">
         <v>4442</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="23">
         <v>9422642</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="23">
         <v>38393</v>
       </c>
-      <c r="N9" s="40">
+      <c r="N9" s="23">
         <v>57994</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="24">
         <v>0</v>
       </c>
       <c r="P9" s="14"/>
@@ -4682,39 +5453,39 @@
       <c r="B10" s="2">
         <v>471</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="23">
         <v>3416</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="23">
         <v>2437923</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="23">
         <v>15337655</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="23">
         <v>487562</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="23">
         <v>121866</v>
       </c>
       <c r="H10" s="14"/>
-      <c r="I10" s="40">
+      <c r="I10" s="23">
         <v>121866</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="40">
+      <c r="K10" s="23">
         <v>4477</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="23">
         <v>10830594</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="23">
         <v>35394</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="23">
         <v>61075</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="24">
         <v>0</v>
       </c>
       <c r="P10" s="14"/>
@@ -4729,39 +5500,39 @@
       <c r="B11" s="2">
         <v>238</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="23">
         <v>3070</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="23">
         <v>2322634</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="23">
         <v>16621765</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="23">
         <v>248875</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="23">
         <v>99326</v>
       </c>
       <c r="H11" s="14"/>
-      <c r="I11" s="40">
+      <c r="I11" s="23">
         <v>99326</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="40">
+      <c r="K11" s="23">
         <v>4297</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="23">
         <v>10060316</v>
       </c>
-      <c r="M11" s="40">
+      <c r="M11" s="23">
         <v>29242</v>
       </c>
-      <c r="N11" s="40">
+      <c r="N11" s="23">
         <v>43634</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="24">
         <v>0</v>
       </c>
       <c r="P11" s="14"/>
@@ -4776,39 +5547,39 @@
       <c r="B12" s="2">
         <v>233</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="23">
         <v>3390</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="23">
         <v>2428078</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="23">
         <v>15941837</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="23">
         <v>505730</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="23">
         <v>128289</v>
       </c>
       <c r="H12" s="14"/>
-      <c r="I12" s="40">
+      <c r="I12" s="23">
         <v>128289</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="40">
+      <c r="K12" s="23">
         <v>3788</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="23">
         <v>8826588</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M12" s="23">
         <v>15864</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N12" s="23">
         <v>45136</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O12" s="23">
         <v>218688</v>
       </c>
       <c r="P12" s="14"/>
@@ -4823,39 +5594,39 @@
       <c r="B13" s="2">
         <v>273</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="23">
         <v>2163</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="23">
         <v>2520040</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="23">
         <v>16962198</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="23">
         <v>472284</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="23">
         <v>158070</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="40">
+      <c r="I13" s="23">
         <v>158070</v>
       </c>
       <c r="J13" s="14"/>
-      <c r="K13" s="40">
+      <c r="K13" s="23">
         <v>3741</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="23">
         <v>8514215</v>
       </c>
-      <c r="M13" s="40">
+      <c r="M13" s="23">
         <v>8588</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="23">
         <v>38714</v>
       </c>
-      <c r="O13" s="40">
+      <c r="O13" s="23">
         <v>621535</v>
       </c>
       <c r="P13" s="14"/>
@@ -5453,60 +6224,60 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="R27" s="19" t="s">
+      <c r="R27" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
@@ -5549,14 +6320,14 @@
       <c r="P28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2000</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="24">
         <v>174</v>
       </c>
       <c r="C29" s="2">
@@ -5595,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="41">
+      <c r="Q29" s="24">
         <v>27</v>
       </c>
       <c r="R29" s="16"/>
@@ -5604,7 +6375,7 @@
       <c r="A30" s="3">
         <v>2001</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="24">
         <v>139</v>
       </c>
       <c r="C30" s="2">
@@ -5643,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="2"/>
-      <c r="Q30" s="41">
+      <c r="Q30" s="24">
         <v>30</v>
       </c>
       <c r="R30" s="16"/>
@@ -5652,7 +6423,7 @@
       <c r="A31" s="3">
         <v>2002</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="24">
         <v>118</v>
       </c>
       <c r="C31" s="2">
@@ -5691,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="2"/>
-      <c r="Q31" s="41">
+      <c r="Q31" s="24">
         <v>33</v>
       </c>
       <c r="R31" s="16"/>
@@ -5700,7 +6471,7 @@
       <c r="A32" s="3">
         <v>2003</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="24">
         <v>108</v>
       </c>
       <c r="C32" s="2">
@@ -5739,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="2"/>
-      <c r="Q32" s="41">
+      <c r="Q32" s="24">
         <v>33</v>
       </c>
       <c r="R32" s="16"/>
@@ -5748,7 +6519,7 @@
       <c r="A33" s="3">
         <v>2004</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="24">
         <v>85</v>
       </c>
       <c r="C33" s="2">
@@ -5787,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="2"/>
-      <c r="Q33" s="41">
+      <c r="Q33" s="24">
         <v>34</v>
       </c>
       <c r="R33" s="16"/>
@@ -5796,7 +6567,7 @@
       <c r="A34" s="3">
         <v>2005</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="24">
         <v>43</v>
       </c>
       <c r="C34" s="2">
@@ -5835,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="2"/>
-      <c r="Q34" s="41">
+      <c r="Q34" s="24">
         <v>34</v>
       </c>
       <c r="R34" s="16"/>
@@ -5844,7 +6615,7 @@
       <c r="A35" s="3">
         <v>2006</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="24">
         <v>42</v>
       </c>
       <c r="C35" s="2">
@@ -5883,7 +6654,7 @@
         <v>1408</v>
       </c>
       <c r="P35" s="2"/>
-      <c r="Q35" s="41">
+      <c r="Q35" s="24">
         <v>41</v>
       </c>
       <c r="R35" s="16"/>
@@ -5892,7 +6663,7 @@
       <c r="A36" s="3">
         <v>2007</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36" s="24">
         <v>49</v>
       </c>
       <c r="C36" s="2">
@@ -5931,7 +6702,7 @@
         <v>5692</v>
       </c>
       <c r="P36" s="2"/>
-      <c r="Q36" s="41">
+      <c r="Q36" s="24">
         <v>52</v>
       </c>
       <c r="R36" s="16"/>
@@ -6597,60 +7368,60 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="19" t="s">
+      <c r="A50" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19" t="s">
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="R50" s="19" t="s">
+      <c r="R50" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="2" t="s">
         <v>31</v>
       </c>
@@ -6693,8 +7464,8 @@
       <c r="P51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
@@ -7272,7 +8043,7 @@
       <c r="O62" s="3">
         <v>29.08</v>
       </c>
-      <c r="P62" s="42">
+      <c r="P62" s="25">
         <v>99.9</v>
       </c>
       <c r="Q62" s="3">
@@ -7281,6 +8052,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:P50"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:P27"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A26:R26"/>
     <mergeCell ref="Q3:Q4"/>
@@ -7288,17 +8070,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:P3"/>
     <mergeCell ref="C5:P5"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:P27"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:P50"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="R50:R51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7319,7 +8090,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -7342,36 +8113,36 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2000</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="27">
         <v>370265</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="27">
         <v>487325</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="27">
         <v>2906942</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="27">
         <v>181019</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="27">
         <v>590966</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="27">
         <v>4536516</v>
       </c>
     </row>
@@ -7379,22 +8150,22 @@
       <c r="A5" s="3">
         <v>2001</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="27">
         <v>390125</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="27">
         <v>480490</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="27">
         <v>3085847</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="27">
         <v>174832</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="27">
         <v>616365</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="27">
         <v>4747660</v>
       </c>
     </row>
@@ -7402,22 +8173,22 @@
       <c r="A6" s="3">
         <v>2002</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="27">
         <v>409084</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="27">
         <v>456839</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="27">
         <v>3036551</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="27">
         <v>165266</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="27">
         <v>591319</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="27">
         <v>4659059</v>
       </c>
     </row>
@@ -7425,22 +8196,22 @@
       <c r="A7" s="3">
         <v>2003</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="27">
         <v>422084</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="27">
         <v>459760</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="27">
         <v>2924714</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="27">
         <v>143723</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="27">
         <v>479509</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="27">
         <v>4429790</v>
       </c>
     </row>
@@ -7448,22 +8219,22 @@
       <c r="A8" s="3">
         <v>2004</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="27">
         <v>470933</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="27">
         <v>463398</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="27">
         <v>3361731</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="27">
         <v>132495</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="27">
         <v>504987</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="27">
         <v>4933544</v>
       </c>
     </row>
@@ -7471,22 +8242,22 @@
       <c r="A9" s="3">
         <v>2005</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="27">
         <v>510361</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="27">
         <v>444774</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="27">
         <v>3122642</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="27">
         <v>109467</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="27">
         <v>360779</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="27">
         <v>4548023</v>
       </c>
     </row>
@@ -7494,22 +8265,22 @@
       <c r="A10" s="3">
         <v>2006</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="27">
         <v>489484</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="27">
         <v>392089</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="27">
         <v>2739286</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="27">
         <v>59387</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="27">
         <v>373197</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="27">
         <v>4053443</v>
       </c>
     </row>
@@ -7517,22 +8288,22 @@
       <c r="A11" s="3">
         <v>2007</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="27">
         <v>520813</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="27">
         <v>387211</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="27">
         <v>2642345</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="27">
         <v>32148</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="27">
         <v>320099</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="27">
         <v>3902616</v>
       </c>
     </row>
@@ -7819,7 +8590,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -7842,36 +8613,36 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="29" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2000</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="23">
         <v>2158</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="23">
         <v>2889</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="23">
         <v>18858</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="23">
         <v>1196</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="23">
         <v>4114</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="23">
         <v>29214</v>
       </c>
       <c r="H28">
@@ -7883,22 +8654,22 @@
       <c r="A29" s="3">
         <v>2001</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="23">
         <v>2273</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="23">
         <v>2848</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="23">
         <v>20018</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="23">
         <v>1155</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="23">
         <v>4291</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="23">
         <v>30586</v>
       </c>
       <c r="H29">
@@ -7910,22 +8681,22 @@
       <c r="A30" s="3">
         <v>2002</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="23">
         <v>2384</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="23">
         <v>2708</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="23">
         <v>19698</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="23">
         <v>1092</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="23">
         <v>4116</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="23">
         <v>29999</v>
       </c>
       <c r="H30">
@@ -7937,22 +8708,22 @@
       <c r="A31" s="3">
         <v>2003</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="23">
         <v>2460</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="23">
         <v>2725</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="23">
         <v>18973</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="24">
         <v>950</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="23">
         <v>3338</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="23">
         <v>28445</v>
       </c>
       <c r="H31">
@@ -7964,22 +8735,22 @@
       <c r="A32" s="3">
         <v>2004</v>
       </c>
-      <c r="B32" s="40">
+      <c r="B32" s="23">
         <v>2744</v>
       </c>
-      <c r="C32" s="40">
+      <c r="C32" s="23">
         <v>2747</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="23">
         <v>21808</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="24">
         <v>875</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="23">
         <v>3515</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="23">
         <v>31690</v>
       </c>
       <c r="H32">
@@ -7991,22 +8762,22 @@
       <c r="A33" s="3">
         <v>2005</v>
       </c>
-      <c r="B33" s="40">
+      <c r="B33" s="23">
         <v>2974</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="23">
         <v>2636</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="23">
         <v>20257</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="24">
         <v>723</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="23">
         <v>2511</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="23">
         <v>29102</v>
       </c>
       <c r="H33">
@@ -8018,22 +8789,22 @@
       <c r="A34" s="3">
         <v>2006</v>
       </c>
-      <c r="B34" s="40">
+      <c r="B34" s="23">
         <v>2852</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="23">
         <v>2324</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="23">
         <v>17770</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="24">
         <v>392</v>
       </c>
-      <c r="F34" s="40">
+      <c r="F34" s="23">
         <v>2598</v>
       </c>
-      <c r="G34" s="40">
+      <c r="G34" s="23">
         <v>25937</v>
       </c>
       <c r="H34">
@@ -8045,22 +8816,22 @@
       <c r="A35" s="3">
         <v>2007</v>
       </c>
-      <c r="B35" s="40">
+      <c r="B35" s="23">
         <v>3035</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="23">
         <v>2295</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="23">
         <v>17141</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="24">
         <v>212</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="23">
         <v>2228</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35" s="23">
         <v>24912</v>
       </c>
       <c r="H35">
@@ -8366,18 +9137,18 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -8395,43 +9166,43 @@
       <c r="F49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="50" t="s">
+      <c r="G49" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H49" s="51" t="s">
+      <c r="H49" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I49" s="51" t="s">
+      <c r="I49" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J49" s="51" t="s">
+      <c r="J49" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="51" t="s">
+      <c r="K49" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L49" s="51" t="s">
+      <c r="L49" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="M49" s="52" t="s">
+      <c r="M49" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="29" t="s">
+      <c r="A50" s="32"/>
+      <c r="B50" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
@@ -8456,20 +9227,20 @@
         <f t="shared" ref="G51:G61" si="2">SUM(B51:F51)</f>
         <v>99.999999999999986</v>
       </c>
-      <c r="H51" s="51">
-        <v>0</v>
-      </c>
-      <c r="I51" s="51">
+      <c r="H51" s="29">
+        <v>0</v>
+      </c>
+      <c r="I51" s="29">
         <f>SUM(B51:F51)</f>
         <v>99.999999999999986</v>
       </c>
-      <c r="J51" s="51">
-        <v>0</v>
-      </c>
-      <c r="K51" s="51">
-        <v>0</v>
-      </c>
-      <c r="L51" s="51">
+      <c r="J51" s="29">
+        <v>0</v>
+      </c>
+      <c r="K51" s="29">
+        <v>0</v>
+      </c>
+      <c r="L51" s="29">
         <v>0</v>
       </c>
       <c r="M51">
@@ -8500,20 +9271,20 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H52" s="51">
-        <v>0</v>
-      </c>
-      <c r="I52" s="51">
+      <c r="H52" s="29">
+        <v>0</v>
+      </c>
+      <c r="I52" s="29">
         <f t="shared" ref="I52:I61" si="3">SUM(B52:F52)</f>
         <v>100</v>
       </c>
-      <c r="J52" s="51">
-        <v>0</v>
-      </c>
-      <c r="K52" s="51">
-        <v>0</v>
-      </c>
-      <c r="L52" s="51">
+      <c r="J52" s="29">
+        <v>0</v>
+      </c>
+      <c r="K52" s="29">
+        <v>0</v>
+      </c>
+      <c r="L52" s="29">
         <v>0</v>
       </c>
       <c r="M52">
@@ -8544,20 +9315,20 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H53" s="51">
-        <v>0</v>
-      </c>
-      <c r="I53" s="51">
+      <c r="H53" s="29">
+        <v>0</v>
+      </c>
+      <c r="I53" s="29">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J53" s="51">
-        <v>0</v>
-      </c>
-      <c r="K53" s="51">
-        <v>0</v>
-      </c>
-      <c r="L53" s="51">
+      <c r="J53" s="29">
+        <v>0</v>
+      </c>
+      <c r="K53" s="29">
+        <v>0</v>
+      </c>
+      <c r="L53" s="29">
         <v>0</v>
       </c>
       <c r="M53">
@@ -8588,20 +9359,20 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H54" s="51">
-        <v>0</v>
-      </c>
-      <c r="I54" s="51">
+      <c r="H54" s="29">
+        <v>0</v>
+      </c>
+      <c r="I54" s="29">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J54" s="51">
-        <v>0</v>
-      </c>
-      <c r="K54" s="51">
-        <v>0</v>
-      </c>
-      <c r="L54" s="51">
+      <c r="J54" s="29">
+        <v>0</v>
+      </c>
+      <c r="K54" s="29">
+        <v>0</v>
+      </c>
+      <c r="L54" s="29">
         <v>0</v>
       </c>
       <c r="M54">
@@ -8632,20 +9403,20 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H55" s="51">
-        <v>0</v>
-      </c>
-      <c r="I55" s="51">
+      <c r="H55" s="29">
+        <v>0</v>
+      </c>
+      <c r="I55" s="29">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J55" s="51">
-        <v>0</v>
-      </c>
-      <c r="K55" s="51">
-        <v>0</v>
-      </c>
-      <c r="L55" s="51">
+      <c r="J55" s="29">
+        <v>0</v>
+      </c>
+      <c r="K55" s="29">
+        <v>0</v>
+      </c>
+      <c r="L55" s="29">
         <v>0</v>
       </c>
       <c r="M55">
@@ -8676,20 +9447,20 @@
         <f t="shared" si="2"/>
         <v>100.00999999999999</v>
       </c>
-      <c r="H56" s="51">
-        <v>0</v>
-      </c>
-      <c r="I56" s="51">
+      <c r="H56" s="29">
+        <v>0</v>
+      </c>
+      <c r="I56" s="29">
         <f t="shared" si="3"/>
         <v>100.00999999999999</v>
       </c>
-      <c r="J56" s="51">
-        <v>0</v>
-      </c>
-      <c r="K56" s="51">
-        <v>0</v>
-      </c>
-      <c r="L56" s="51">
+      <c r="J56" s="29">
+        <v>0</v>
+      </c>
+      <c r="K56" s="29">
+        <v>0</v>
+      </c>
+      <c r="L56" s="29">
         <v>0</v>
       </c>
       <c r="M56">
@@ -8720,20 +9491,20 @@
         <f t="shared" si="2"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="H57" s="51">
-        <v>0</v>
-      </c>
-      <c r="I57" s="51">
+      <c r="H57" s="29">
+        <v>0</v>
+      </c>
+      <c r="I57" s="29">
         <f t="shared" si="3"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="J57" s="51">
-        <v>0</v>
-      </c>
-      <c r="K57" s="51">
-        <v>0</v>
-      </c>
-      <c r="L57" s="51">
+      <c r="J57" s="29">
+        <v>0</v>
+      </c>
+      <c r="K57" s="29">
+        <v>0</v>
+      </c>
+      <c r="L57" s="29">
         <v>0</v>
       </c>
       <c r="M57">
@@ -8764,20 +9535,20 @@
         <f t="shared" si="2"/>
         <v>99.99</v>
       </c>
-      <c r="H58" s="51">
-        <v>0</v>
-      </c>
-      <c r="I58" s="51">
+      <c r="H58" s="29">
+        <v>0</v>
+      </c>
+      <c r="I58" s="29">
         <f t="shared" si="3"/>
         <v>99.99</v>
       </c>
-      <c r="J58" s="51">
-        <v>0</v>
-      </c>
-      <c r="K58" s="51">
-        <v>0</v>
-      </c>
-      <c r="L58" s="51">
+      <c r="J58" s="29">
+        <v>0</v>
+      </c>
+      <c r="K58" s="29">
+        <v>0</v>
+      </c>
+      <c r="L58" s="29">
         <v>0</v>
       </c>
       <c r="M58">
@@ -8808,20 +9579,20 @@
         <f t="shared" si="2"/>
         <v>100.00999999999999</v>
       </c>
-      <c r="H59" s="51">
-        <v>0</v>
-      </c>
-      <c r="I59" s="51">
+      <c r="H59" s="29">
+        <v>0</v>
+      </c>
+      <c r="I59" s="29">
         <f t="shared" si="3"/>
         <v>100.00999999999999</v>
       </c>
-      <c r="J59" s="51">
-        <v>0</v>
-      </c>
-      <c r="K59" s="51">
-        <v>0</v>
-      </c>
-      <c r="L59" s="51">
+      <c r="J59" s="29">
+        <v>0</v>
+      </c>
+      <c r="K59" s="29">
+        <v>0</v>
+      </c>
+      <c r="L59" s="29">
         <v>0</v>
       </c>
       <c r="M59">
@@ -8852,20 +9623,20 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H60" s="51">
-        <v>0</v>
-      </c>
-      <c r="I60" s="51">
+      <c r="H60" s="29">
+        <v>0</v>
+      </c>
+      <c r="I60" s="29">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J60" s="51">
-        <v>0</v>
-      </c>
-      <c r="K60" s="51">
-        <v>0</v>
-      </c>
-      <c r="L60" s="51">
+      <c r="J60" s="29">
+        <v>0</v>
+      </c>
+      <c r="K60" s="29">
+        <v>0</v>
+      </c>
+      <c r="L60" s="29">
         <v>0</v>
       </c>
       <c r="M60">
@@ -8896,20 +9667,20 @@
         <f t="shared" si="2"/>
         <v>100.00999999999999</v>
       </c>
-      <c r="H61" s="51">
-        <v>0</v>
-      </c>
-      <c r="I61" s="51">
+      <c r="H61" s="29">
+        <v>0</v>
+      </c>
+      <c r="I61" s="29">
         <f t="shared" si="3"/>
         <v>100.00999999999999</v>
       </c>
-      <c r="J61" s="51">
-        <v>0</v>
-      </c>
-      <c r="K61" s="51">
-        <v>0</v>
-      </c>
-      <c r="L61" s="51">
+      <c r="J61" s="29">
+        <v>0</v>
+      </c>
+      <c r="K61" s="29">
+        <v>0</v>
+      </c>
+      <c r="L61" s="29">
         <v>0</v>
       </c>
       <c r="M61">
@@ -8943,23 +9714,23 @@
         <f>SUM(B62:F62)</f>
         <v>100.00181818181818</v>
       </c>
-      <c r="H62" s="51">
+      <c r="H62" s="29">
         <f>AVERAGE(H51:H61)</f>
         <v>0</v>
       </c>
-      <c r="I62" s="51">
+      <c r="I62" s="29">
         <f t="shared" ref="I62:K62" si="6">AVERAGE(I51:I61)</f>
         <v>100.00181818181818</v>
       </c>
-      <c r="J62" s="51">
+      <c r="J62" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K62" s="51">
+      <c r="K62" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L62" s="51">
+      <c r="L62" s="29">
         <f>AVERAGE(L51:L61)</f>
         <v>0</v>
       </c>
@@ -9002,20 +9773,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -9044,19 +9815,19 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
@@ -9071,16 +9842,16 @@
       <c r="B5" s="5">
         <v>632</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="22">
         <v>745</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="22">
         <v>588919</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="22">
         <v>825064</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="22">
         <v>6503</v>
       </c>
       <c r="G5" s="5">
@@ -9100,16 +9871,16 @@
       <c r="B6" s="5">
         <v>629</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="22">
         <v>821</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="22">
         <v>580658</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="22">
         <v>875842</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="22">
         <v>6281</v>
       </c>
       <c r="G6" s="5">
@@ -9129,16 +9900,16 @@
       <c r="B7" s="5">
         <v>625</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="22">
         <v>913</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="22">
         <v>552077</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="22">
         <v>861851</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="22">
         <v>5937</v>
       </c>
       <c r="G7" s="5">
@@ -9158,16 +9929,16 @@
       <c r="B8" s="5">
         <v>622</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="22">
         <v>882</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="22">
         <v>555607</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="22">
         <v>830108</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="22">
         <v>5163</v>
       </c>
       <c r="G8" s="5">
@@ -9187,16 +9958,16 @@
       <c r="B9" s="5">
         <v>619</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="22">
         <v>972</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="22">
         <v>560004</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="22">
         <v>954145</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="22">
         <v>4760</v>
       </c>
       <c r="G9" s="5">
@@ -9216,16 +9987,16 @@
       <c r="B10" s="5">
         <v>616</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="22">
         <v>1057</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="22">
         <v>537497</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="22">
         <v>886286</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="22">
         <v>3933</v>
       </c>
       <c r="G10" s="5">
@@ -9245,16 +10016,16 @@
       <c r="B11" s="5">
         <v>613</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="22">
         <v>1145</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="22">
         <v>473829</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="22">
         <v>777479</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="22">
         <v>2134</v>
       </c>
       <c r="G11" s="5">
@@ -9274,16 +10045,16 @@
       <c r="B12" s="5">
         <v>610</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="22">
         <v>1526</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="22">
         <v>467933</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="22">
         <v>749965</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="22">
         <v>1155</v>
       </c>
       <c r="G12" s="5">
@@ -9653,21 +10424,21 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -9694,53 +10465,53 @@
       <c r="I27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="43" t="s">
+      <c r="J27" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="41">
+      <c r="A29" s="24">
         <v>2000</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="23">
         <v>1452</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="24">
         <v>134</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="23">
         <v>3491</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="23">
         <v>5352</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="24">
         <v>43</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="23">
         <v>8886</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="23">
         <v>1257</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="23">
         <v>8943</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="23">
         <v>20670</v>
       </c>
       <c r="K29">
@@ -9749,34 +10520,34 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="41">
+      <c r="A30" s="24">
         <v>2001</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="23">
         <v>1444</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="24">
         <v>147</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="23">
         <v>3442</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="23">
         <v>5682</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="24">
         <v>42</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="23">
         <v>9165</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="23">
         <v>1138</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="23">
         <v>9555</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="23">
         <v>21450</v>
       </c>
       <c r="K30">
@@ -9785,34 +10556,34 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="41">
+      <c r="A31" s="24">
         <v>2002</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="23">
         <v>1437</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="24">
         <v>164</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="23">
         <v>3272</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="23">
         <v>5591</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="24">
         <v>39</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="23">
         <v>8903</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="23">
         <v>1279</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="23">
         <v>9970</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="23">
         <v>21752</v>
       </c>
       <c r="K31">
@@ -9821,34 +10592,34 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="41">
+      <c r="A32" s="24">
         <v>2003</v>
       </c>
-      <c r="B32" s="40">
+      <c r="B32" s="23">
         <v>1430</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="24">
         <v>158</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="23">
         <v>3293</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="23">
         <v>5385</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="24">
         <v>34</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="23">
         <v>8712</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="24">
         <v>946</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="23">
         <v>11151</v>
       </c>
-      <c r="J32" s="40">
+      <c r="J32" s="23">
         <v>22397</v>
       </c>
       <c r="K32">
@@ -9857,34 +10628,34 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="41">
+      <c r="A33" s="24">
         <v>2004</v>
       </c>
-      <c r="B33" s="40">
+      <c r="B33" s="23">
         <v>1423</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="24">
         <v>174</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="23">
         <v>3319</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="23">
         <v>6190</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="24">
         <v>31</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="23">
         <v>9540</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="23">
         <v>1288</v>
       </c>
-      <c r="I33" s="40">
+      <c r="I33" s="23">
         <v>12986</v>
       </c>
-      <c r="J33" s="40">
+      <c r="J33" s="23">
         <v>25412</v>
       </c>
       <c r="K33">
@@ -9893,34 +10664,34 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="41">
+      <c r="A34" s="24">
         <v>2005</v>
       </c>
-      <c r="B34" s="40">
+      <c r="B34" s="23">
         <v>1416</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="24">
         <v>190</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="23">
         <v>3186</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E34" s="23">
         <v>5749</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="24">
         <v>26</v>
       </c>
-      <c r="G34" s="40">
+      <c r="G34" s="23">
         <v>8961</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34" s="23">
         <v>1324</v>
       </c>
-      <c r="I34" s="40">
+      <c r="I34" s="23">
         <v>14344</v>
       </c>
-      <c r="J34" s="40">
+      <c r="J34" s="23">
         <v>26235</v>
       </c>
       <c r="K34">
@@ -9929,34 +10700,34 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="41">
+      <c r="A35" s="24">
         <v>2006</v>
       </c>
-      <c r="B35" s="40">
+      <c r="B35" s="23">
         <v>1409</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="24">
         <v>206</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="23">
         <v>2809</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="23">
         <v>5044</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="24">
         <v>14</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35" s="23">
         <v>7866</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="23">
         <v>1241</v>
       </c>
-      <c r="I35" s="40">
+      <c r="I35" s="23">
         <v>15473</v>
       </c>
-      <c r="J35" s="40">
+      <c r="J35" s="23">
         <v>26195</v>
       </c>
       <c r="K35">
@@ -9965,34 +10736,34 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="41">
+      <c r="A36" s="24">
         <v>2007</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B36" s="23">
         <v>1402</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="24">
         <v>274</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="23">
         <v>2774</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="23">
         <v>4865</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="24">
         <v>8</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="23">
         <v>7646</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="23">
         <v>1337</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="23">
         <v>17237</v>
       </c>
-      <c r="J36" s="40">
+      <c r="J36" s="23">
         <v>27896</v>
       </c>
       <c r="K36">
@@ -10438,20 +11209,20 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -10478,45 +11249,45 @@
       <c r="I51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="48" t="s">
+      <c r="J51" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="43" t="s">
+      <c r="K51" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L51" s="43" t="s">
+      <c r="L51" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="M51" s="43" t="s">
+      <c r="M51" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="N51" s="43" t="s">
+      <c r="N51" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="O51" s="43" t="s">
+      <c r="O51" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="P51" s="24" t="s">
+      <c r="P51" s="38" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="49"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="48"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="25"/>
+      <c r="P52" s="39"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
@@ -11080,23 +11851,23 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K64" s="37">
+      <c r="K64" s="20">
         <f>AVERAGE(K53:K63)</f>
         <v>0</v>
       </c>
-      <c r="L64" s="37">
+      <c r="L64" s="20">
         <f>AVERAGE(L53:L63)</f>
         <v>16.918181818181818</v>
       </c>
-      <c r="M64" s="37">
+      <c r="M64" s="20">
         <f t="shared" ref="M64:O64" si="8">AVERAGE(M53:M63)</f>
         <v>6.0699999999999994</v>
       </c>
-      <c r="N64" s="37">
+      <c r="N64" s="20">
         <f t="shared" si="8"/>
         <v>77.00545454545454</v>
       </c>
-      <c r="O64" s="37">
+      <c r="O64" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11146,102 +11917,102 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="50" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="2" t="s">
         <v>48</v>
       </c>
@@ -11254,11 +12025,11 @@
       <c r="P4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="28"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="50"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -11976,12 +12747,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -12271,11 +13042,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J3:J4"/>
@@ -12291,6 +13057,11 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12324,22 +13095,22 @@
       </c>
     </row>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="23" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -12398,15 +13169,15 @@
         <f t="shared" ref="I4:I11" si="2">F4*1000000</f>
         <v>170310000</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="19">
         <f>D4*$J$1</f>
         <v>16875695732838.566</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="19">
         <f t="shared" ref="K4:L19" si="3">E4*$J$1</f>
         <v>13457810760667.885</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="19">
         <f t="shared" si="3"/>
         <v>30333506493506.453</v>
       </c>
@@ -12436,15 +13207,15 @@
         <f t="shared" si="2"/>
         <v>168150000</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="19">
         <f t="shared" ref="J5:J22" si="4">D5*$J$1</f>
         <v>16403710575139.123</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="19">
         <f t="shared" si="3"/>
         <v>13545083487940.611</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="19">
         <f t="shared" si="3"/>
         <v>29948794063079.738</v>
       </c>
@@ -12474,15 +13245,15 @@
         <f t="shared" si="2"/>
         <v>176590000</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="19">
         <f t="shared" si="4"/>
         <v>16083116883116.859</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="19">
         <f t="shared" si="3"/>
         <v>15368905380333.932</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="19">
         <f t="shared" si="3"/>
         <v>31452022263450.793</v>
       </c>
@@ -12512,15 +13283,15 @@
         <f t="shared" si="2"/>
         <v>178130000</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="19">
         <f t="shared" si="4"/>
         <v>16238070500927.621</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="19">
         <f t="shared" si="3"/>
         <v>15488237476808.883</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="19">
         <f t="shared" si="3"/>
         <v>31726307977736.504</v>
       </c>
@@ -12550,15 +13321,15 @@
         <f t="shared" si="2"/>
         <v>188340000</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="19">
         <f t="shared" si="4"/>
         <v>17420705009276.414</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="19">
         <f t="shared" si="3"/>
         <v>16124081632653.039</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="19">
         <f t="shared" si="3"/>
         <v>33544786641929.453</v>
       </c>
@@ -12588,15 +13359,15 @@
         <f t="shared" si="2"/>
         <v>185800000</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="19">
         <f t="shared" si="4"/>
         <v>17322745825602.945</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="19">
         <f t="shared" si="3"/>
         <v>15769647495361.76</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="19">
         <f t="shared" si="3"/>
         <v>33092393320964.707</v>
       </c>
@@ -12626,15 +13397,15 @@
         <f t="shared" si="2"/>
         <v>187100000</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="19">
         <f t="shared" si="4"/>
         <v>16742115027829.291</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="19">
         <f t="shared" si="3"/>
         <v>16581818181818.158</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="19">
         <f t="shared" si="3"/>
         <v>33323933209647.449</v>
       </c>
@@ -12664,15 +13435,15 @@
         <f t="shared" si="2"/>
         <v>165000000</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="19">
         <f t="shared" si="4"/>
         <v>18879406307977.711</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="19">
         <f t="shared" si="3"/>
         <v>10508348794063.064</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="19">
         <f t="shared" si="3"/>
         <v>29387755102040.777</v>
       </c>
@@ -12702,15 +13473,15 @@
         <f>F12*1000000</f>
         <v>170100000</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="19">
         <f t="shared" si="4"/>
         <v>20037105751391.438</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="19">
         <f t="shared" si="3"/>
         <v>10258998144712.416</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="19">
         <f t="shared" si="3"/>
         <v>30296103896103.852</v>
       </c>
@@ -12740,15 +13511,15 @@
         <f t="shared" ref="I13:I22" si="7">F13*1000000</f>
         <v>159630000</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="19">
         <f t="shared" si="4"/>
         <v>19118070500927.617</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="19">
         <f t="shared" si="3"/>
         <v>9313246753246.7402</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="19">
         <f t="shared" si="3"/>
         <v>28431317254174.355</v>
       </c>
@@ -12778,15 +13549,15 @@
         <f t="shared" si="7"/>
         <v>157140000</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="19">
         <f t="shared" si="4"/>
         <v>19306864564007.395</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="19">
         <f t="shared" si="3"/>
         <v>8680964749536.166</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="19">
         <f t="shared" si="3"/>
         <v>27987829313543.559</v>
       </c>
@@ -12816,15 +13587,15 @@
         <f t="shared" si="7"/>
         <v>152890000</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="19">
         <f t="shared" si="4"/>
         <v>18649647495361.754</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="19">
         <f t="shared" si="3"/>
         <v>8581224489795.9063</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="19">
         <f t="shared" si="3"/>
         <v>27230871985157.66</v>
       </c>
@@ -12854,15 +13625,15 @@
         <f t="shared" si="7"/>
         <v>150700000</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="19">
         <f t="shared" si="4"/>
         <v>18407421150278.266</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="19">
         <f t="shared" si="3"/>
         <v>8433395176252.3076</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="19">
         <f t="shared" si="3"/>
         <v>26840816326530.574</v>
       </c>
@@ -12892,15 +13663,15 @@
         <f t="shared" si="7"/>
         <v>150390000</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="19">
         <f t="shared" si="4"/>
         <v>18085046382189.215</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="19">
         <f t="shared" si="3"/>
         <v>8700556586270.8604</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="19">
         <f t="shared" si="3"/>
         <v>26785602968460.07</v>
       </c>
@@ -12930,15 +13701,15 @@
         <f t="shared" si="7"/>
         <v>149300000</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="19">
         <f t="shared" si="4"/>
         <v>17857068645640.051</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="19">
         <f t="shared" si="3"/>
         <v>8734397031539.876</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="19">
         <f t="shared" si="3"/>
         <v>26591465677179.93</v>
       </c>
@@ -12968,15 +13739,15 @@
         <f t="shared" si="7"/>
         <v>151330000</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="19">
         <f t="shared" si="4"/>
         <v>17452764378478.639</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="19">
         <f t="shared" si="3"/>
         <v>9500259740259.7285</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="19">
         <f t="shared" si="3"/>
         <v>26953024118738.371</v>
       </c>
@@ -13006,15 +13777,15 @@
         <f t="shared" si="7"/>
         <v>144060000</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="19">
         <f t="shared" si="4"/>
         <v>18028051948051.922</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="19">
         <f t="shared" ref="K20:K22" si="8">E20*$J$1</f>
         <v>7630129870129.8604</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="19">
         <f t="shared" ref="L20:L22" si="9">F20*$J$1</f>
         <v>25658181818181.781</v>
       </c>
@@ -13044,15 +13815,15 @@
         <f t="shared" si="7"/>
         <v>142720000</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="19">
         <f t="shared" si="4"/>
         <v>17876660482374.742</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="19">
         <f t="shared" si="8"/>
         <v>7542857142857.1328</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="19">
         <f t="shared" si="9"/>
         <v>25419517625231.875</v>
       </c>
@@ -13082,26 +13853,26 @@
         <f t="shared" si="7"/>
         <v>135550000</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="19">
         <f t="shared" si="4"/>
         <v>17109016697588.104</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="19">
         <f t="shared" si="8"/>
         <v>7033469387755.0928</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="19">
         <f t="shared" si="9"/>
         <v>24142486085343.195</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
@@ -13408,18 +14179,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -13880,7 +14651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D669443A-3E09-4944-906E-A5B09966FBDB}">
   <dimension ref="A2:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="V5" sqref="V5:V23"/>
     </sheetView>
@@ -13909,36 +14680,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="S2" s="20" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="S2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
@@ -14001,31 +14772,31 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="S4" s="19" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="S4" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -15358,82 +16129,82 @@
       <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19" t="s">
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="N26" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="19" t="s">
+      <c r="P26" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="Q26" s="19" t="s">
+      <c r="Q26" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="R26" s="19" t="s">
+      <c r="R26" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="S26" s="19" t="s">
+      <c r="S26" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="T26" s="28" t="s">
+      <c r="T26" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="2" t="s">
         <v>2</v>
       </c>
@@ -15446,42 +16217,42 @@
       <c r="I27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="28"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="50"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="19" t="s">
+      <c r="P28" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -16719,59 +17490,59 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="19" t="s">
+      <c r="A50" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19" t="s">
+      <c r="C50" s="32"/>
+      <c r="D50" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="19" t="s">
+      <c r="A51" s="52"/>
+      <c r="B51" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="19" t="s">
+      <c r="E51" s="35"/>
+      <c r="F51" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19" t="s">
+      <c r="G51" s="32"/>
+      <c r="H51" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="19"/>
+      <c r="I51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="14" t="s">
         <v>26</v>
       </c>
@@ -17287,14 +18058,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B28:N28"/>
@@ -17311,15 +18083,14 @@
     <mergeCell ref="P28:T28"/>
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
